--- a/selenium/prompt/打鍵指示書.xlsx
+++ b/selenium/prompt/打鍵指示書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ADCE1A-2ACA-43C3-9C05-0B99282CA335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2D5E-5699-452E-9D7C-F616D421CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{1D8EEEF3-2A8F-4EF5-A229-8653A4EEDF75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost:8080/toSelect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>loginButton</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost:8080/processLogin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bookId</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,14 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,22 +110,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルの2行目の1列目</t>
-    <rPh sb="10" eb="12">
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択してPOST</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/toSelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/processLogin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行目の1列目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>レツメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
+    <t>要素</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -153,14 +174,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="BIZ UDゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="BIZ UDゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -169,7 +190,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="BIZ UDゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,20 +243,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,110 +321,16 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="ユーザー定義 1">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="BIZ UDゴシック"/>
+        <a:ea typeface="BIZ UDゴシック"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="BIZ UDゴシック"/>
+        <a:ea typeface="BIZ UDゴシック"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,187 +483,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F98DA3-48B5-4800-AC65-D3D16A58E52A}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.1" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="22.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="29.69921875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="32.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="25.09765625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="21" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+    <row r="24" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>23</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{87D062B9-3017-4B4C-A9B7-8E595113075E}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{87D062B9-3017-4B4C-A9B7-8E595113075E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{EB320321-4CC8-4850-8650-C5BB80E60576}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{E42F7BF9-6CFE-426C-B1B6-E2DC973C75C9}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{3E7AD5E9-B571-4D75-8385-5D434457BAB2}"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://localhost:8080/processLogin" xr:uid="{E42F7BF9-6CFE-426C-B1B6-E2DC973C75C9}"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://localhost:8080/toSelect" xr:uid="{3E7AD5E9-B571-4D75-8385-5D434457BAB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/selenium/prompt/打鍵指示書.xlsx
+++ b/selenium/prompt/打鍵指示書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2D5E-5699-452E-9D7C-F616D421CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2FD48-1A90-4428-8BD8-AC4B068C4542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{1D8EEEF3-2A8F-4EF5-A229-8653A4EEDF75}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" activeTab="1" xr2:uid="{1D8EEEF3-2A8F-4EF5-A229-8653A4EEDF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1"/>
@@ -66,19 +67,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>loginButton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>REDIRECT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookId</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -125,19 +118,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/processLogin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>button-2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>button-5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NAME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -165,12 +150,112 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>fixButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bankTransfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newCustomerLink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerButton</t>
+  </si>
+  <si>
+    <t>CustomerInputPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dave@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都新宿区1-1-1</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンジュク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BookOrderPage</t>
+  </si>
+  <si>
+    <t>OrderSuccessPage</t>
+  </si>
+  <si>
+    <t>toSelectLink</t>
+  </si>
+  <si>
+    <t>logoutButton</t>
+  </si>
+  <si>
+    <t>FinishPage</t>
+  </si>
+  <si>
+    <t>CustomerOutputPage</t>
+  </si>
+  <si>
+    <t>bookstore-table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボディ内の1行目の1列目</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +302,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +373,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F98DA3-48B5-4800-AC65-D3D16A58E52A}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -494,37 +625,35 @@
     <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.77734375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="20.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -535,111 +664,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -647,28 +771,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -676,95 +797,488 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:4" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{87D062B9-3017-4B4C-A9B7-8E595113075E}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{87D062B9-3017-4B4C-A9B7-8E595113075E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{EB320321-4CC8-4850-8650-C5BB80E60576}"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://localhost:8080/processLogin" xr:uid="{E42F7BF9-6CFE-426C-B1B6-E2DC973C75C9}"/>
-    <hyperlink ref="C7" r:id="rId4" display="http://localhost:8080/toSelect" xr:uid="{3E7AD5E9-B571-4D75-8385-5D434457BAB2}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://localhost:8080/toSelect" xr:uid="{3E7AD5E9-B571-4D75-8385-5D434457BAB2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD3645D-5769-445D-9560-EAF4C9363E5B}">
+  <dimension ref="A2:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="alice@gmail.com" xr:uid="{7042DAE4-2C4E-48C7-B519-E2778D0C07B1}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{2EE8134E-8C9B-472C-A757-51AACE97F75D}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{BFFDF1E5-BAA0-490B-8C4F-7E9FB5B369D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/selenium/prompt/打鍵指示書.xlsx
+++ b/selenium/prompt/打鍵指示書.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3A2795-E946-48BA-ABB6-F1CC6CAC3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{213D3A45-9612-4B57-B6FE-DE880EABD2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" activeTab="1" xr2:uid="{1D8EEEF3-2A8F-4EF5-A229-8653A4EEDF75}"/>
+    <workbookView visibility="hidden" xWindow="5297" yWindow="3719" windowWidth="32306" windowHeight="19935" activeTab="1" xr2:uid="{1D8EEEF3-2A8F-4EF5-A229-8653A4EEDF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="3" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Test3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
